--- a/output/DSCP607_output.xlsx
+++ b/output/DSCP607_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Staff Report</t>
   </si>
@@ -69,6 +69,15 @@
     <t>&lt;----Type Your Name</t>
   </si>
   <si>
+    <t>Course Code:</t>
+  </si>
+  <si>
+    <t>DSPC607</t>
+  </si>
+  <si>
+    <t>Max marks</t>
+  </si>
+  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -84,16 +93,16 @@
     <t>Total Absent</t>
   </si>
   <si>
-    <t>Average Marks &amp; %</t>
-  </si>
-  <si>
-    <t>Less Than 15</t>
-  </si>
-  <si>
-    <t>Between 15-30</t>
-  </si>
-  <si>
-    <t>More than 30</t>
+    <t>Average Marks</t>
+  </si>
+  <si>
+    <t>Less Than 40%</t>
+  </si>
+  <si>
+    <t>Between 40 % - 75 %</t>
+  </si>
+  <si>
+    <t>More than 75%</t>
   </si>
   <si>
     <t>S.No.</t>
@@ -702,17 +711,35 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15</v>
+      </c>
+    </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>51</v>
@@ -720,50 +747,50 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>11.01960784313725</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -784,16 +811,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -804,7 +831,7 @@
         <v>2136110024</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -818,7 +845,7 @@
         <v>2136110043</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -832,7 +859,7 @@
         <v>2236150002</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -846,7 +873,7 @@
         <v>2136110032</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -867,16 +894,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -887,7 +914,7 @@
         <v>2136110001</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -901,7 +928,7 @@
         <v>2136110016</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -915,7 +942,7 @@
         <v>2136110047</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -929,7 +956,7 @@
         <v>2136110038</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -943,7 +970,7 @@
         <v>2136110031</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -957,7 +984,7 @@
         <v>2136110030</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -971,7 +998,7 @@
         <v>2136110002</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -985,7 +1012,7 @@
         <v>2136110021</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -999,7 +1026,7 @@
         <v>2136110020</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -1013,7 +1040,7 @@
         <v>2136110019</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -1027,7 +1054,7 @@
         <v>2136110018</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -1041,7 +1068,7 @@
         <v>2136110023</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -1055,7 +1082,7 @@
         <v>2136110015</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -1069,7 +1096,7 @@
         <v>2136110010</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -1083,7 +1110,7 @@
         <v>2136110004</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1097,7 +1124,7 @@
         <v>2136110008</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -1111,7 +1138,7 @@
         <v>2136110049</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -1125,7 +1152,7 @@
         <v>2136110013</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1139,7 +1166,7 @@
         <v>2136110025</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>13</v>
@@ -1153,7 +1180,7 @@
         <v>2136110029</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>13</v>
@@ -1167,7 +1194,7 @@
         <v>2136110042</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>13</v>
@@ -1181,7 +1208,7 @@
         <v>2136110003</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <v>13</v>
@@ -1195,7 +1222,7 @@
         <v>2136110005</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>12</v>
@@ -1209,7 +1236,7 @@
         <v>2136110034</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>12</v>
@@ -1223,7 +1250,7 @@
         <v>2136110014</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>12</v>
@@ -1237,7 +1264,7 @@
         <v>2136110037</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>12</v>
@@ -1251,7 +1278,7 @@
         <v>2136110040</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>12</v>
@@ -1265,7 +1292,7 @@
         <v>2136110041</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1279,7 +1306,7 @@
         <v>2136110045</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D30">
         <v>12</v>
@@ -1293,7 +1320,7 @@
         <v>2136110048</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <v>12</v>
@@ -1307,7 +1334,7 @@
         <v>2136110036</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>12</v>
@@ -1321,7 +1348,7 @@
         <v>2136110011</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D33">
         <v>11</v>

--- a/output/DSCP607_output.xlsx
+++ b/output/DSCP607_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Staff Report</t>
   </si>
@@ -99,7 +99,7 @@
     <t>Less Than 40%</t>
   </si>
   <si>
-    <t>Between 40 % - 75 %</t>
+    <t>Between 40% - 75%</t>
   </si>
   <si>
     <t>More than 75%</t>
@@ -129,57 +129,63 @@
     <t>Jaikrishnan V</t>
   </si>
   <si>
+    <t>Dhinakaran R</t>
+  </si>
+  <si>
+    <t>Krishnakumar S</t>
+  </si>
+  <si>
     <t>Aravind S</t>
   </si>
   <si>
+    <t>Sikanthkumar C</t>
+  </si>
+  <si>
+    <t>Gowtham R</t>
+  </si>
+  <si>
+    <t>Pradeep M</t>
+  </si>
+  <si>
+    <t>Hitesh Kumar K A</t>
+  </si>
+  <si>
+    <t>Brijesh A</t>
+  </si>
+  <si>
+    <t>Arulselvam C</t>
+  </si>
+  <si>
+    <t>Subhashini S</t>
+  </si>
+  <si>
+    <t>Srija D</t>
+  </si>
+  <si>
+    <t>Sivaa Ganesh S</t>
+  </si>
+  <si>
+    <t>Surya Prakash R</t>
+  </si>
+  <si>
     <t>Nithya Sri R</t>
   </si>
   <si>
-    <t>Gowtham R</t>
-  </si>
-  <si>
-    <t>Pradeep M</t>
-  </si>
-  <si>
-    <t>Hitesh Kumar K A</t>
-  </si>
-  <si>
-    <t>Brijesh A</t>
-  </si>
-  <si>
-    <t>Arulselvam C</t>
-  </si>
-  <si>
-    <t>Subhashini S</t>
-  </si>
-  <si>
-    <t>Srija D</t>
-  </si>
-  <si>
-    <t>Sivaa Ganesh S</t>
-  </si>
-  <si>
-    <t>Sikanthkumar C</t>
-  </si>
-  <si>
-    <t>Surya Prakash R</t>
+    <t>Jananika B</t>
+  </si>
+  <si>
+    <t>Deepakragavan J</t>
   </si>
   <si>
     <t>Nilavanan S.A</t>
   </si>
   <si>
+    <t>Kailashwaran R</t>
+  </si>
+  <si>
     <t>Krishnapriya K</t>
   </si>
   <si>
-    <t>Deepakragavan J</t>
-  </si>
-  <si>
-    <t>Jananika B</t>
-  </si>
-  <si>
-    <t>Kailashwaran R</t>
-  </si>
-  <si>
     <t>Naveena A</t>
   </si>
   <si>
@@ -201,12 +207,12 @@
     <t>Kaviraj M</t>
   </si>
   <si>
+    <t>Mohamed Tharif B</t>
+  </si>
+  <si>
     <t>Nawin B</t>
   </si>
   <si>
-    <t>Mohamed Tharif B</t>
-  </si>
-  <si>
     <t>Preethiga S</t>
   </si>
   <si>
@@ -220,9 +226,6 @@
   </si>
   <si>
     <t>Mohamed Suhail J</t>
-  </si>
-  <si>
-    <t>Manoharan K</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
     <col min="1" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35" customHeight="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +649,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="35" customHeight="1">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -803,7 +806,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -879,6 +882,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2136110006</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>2236150003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -886,7 +917,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -914,7 +945,7 @@
         <v>2136110001</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -922,13 +953,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>2136110016</v>
+        <v>2136110018</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -942,7 +973,7 @@
         <v>2136110047</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -956,7 +987,7 @@
         <v>2136110038</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -970,7 +1001,7 @@
         <v>2136110031</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -984,7 +1015,7 @@
         <v>2136110030</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -998,7 +1029,7 @@
         <v>2136110002</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -1012,7 +1043,7 @@
         <v>2136110021</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -1026,7 +1057,7 @@
         <v>2136110020</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -1040,7 +1071,7 @@
         <v>2136110019</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -1048,13 +1079,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>2136110018</v>
+        <v>2136110023</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -1062,13 +1093,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>2136110023</v>
+        <v>2136110016</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -1076,13 +1107,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>2136110015</v>
+        <v>2136110008</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -1090,13 +1121,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>2136110010</v>
+        <v>2136110004</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -1104,13 +1135,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>2136110004</v>
+        <v>2136110015</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1118,13 +1149,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B17">
-        <v>2136110008</v>
+        <v>2136110049</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -1132,13 +1163,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>2136110049</v>
+        <v>2136110010</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -1152,7 +1183,7 @@
         <v>2136110013</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1166,7 +1197,7 @@
         <v>2136110025</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>13</v>
@@ -1180,7 +1211,7 @@
         <v>2136110029</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>13</v>
@@ -1194,7 +1225,7 @@
         <v>2136110042</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <v>13</v>
@@ -1208,7 +1239,7 @@
         <v>2136110003</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>13</v>
@@ -1222,7 +1253,7 @@
         <v>2136110005</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <v>12</v>
@@ -1236,7 +1267,7 @@
         <v>2136110034</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>12</v>
@@ -1244,13 +1275,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>2136110014</v>
+        <v>2136110037</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>12</v>
@@ -1258,13 +1289,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>2136110037</v>
+        <v>2136110014</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>12</v>
@@ -1278,7 +1309,7 @@
         <v>2136110040</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D28">
         <v>12</v>
@@ -1292,7 +1323,7 @@
         <v>2136110041</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1306,7 +1337,7 @@
         <v>2136110045</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30">
         <v>12</v>
@@ -1320,7 +1351,7 @@
         <v>2136110048</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <v>12</v>
@@ -1334,24 +1365,10 @@
         <v>2136110036</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D32">
         <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>2136110011</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
